--- a/2023-01-10/apk_info_2023-01-10.xlsx
+++ b/2023-01-10/apk_info_2023-01-10.xlsx
@@ -68,7 +68,7 @@
     <t>1f4c5be7fa8cd988b0d14b581b5a3735</t>
   </si>
   <si>
-    <t>Cherrygram_9.2.2-arm64-v8a.apk</t>
+    <t>Cherrygram_9.2.2.apk</t>
   </si>
   <si>
     <t>Cherrygram</t>
@@ -468,7 +468,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="33" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
